--- a/src/main/resources/CompilerDictionary/LocatorDictionary/DownloadServerPageLocators.xlsx
+++ b/src/main/resources/CompilerDictionary/LocatorDictionary/DownloadServerPageLocators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurcharan/Desktop/CouchBase/src/main/resources/CompilerDictionary/LocatorDictionary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurcharan/Desktop/Mobile-Web-Automation/src/main/resources/CompilerDictionary/LocatorDictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12F5198-4BA9-AC45-8B12-419068B497F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E7B29F-9603-D14A-BE25-B7EDB313EF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="920" windowWidth="12800" windowHeight="17280" xr2:uid="{8EFE0C1B-BAD2-1B45-AB13-3D4AFAD96C4D}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{8EFE0C1B-BAD2-1B45-AB13-3D4AFAD96C4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="102">
   <si>
     <t>Sno</t>
   </si>
@@ -345,12 +345,21 @@
   <si>
     <t>ul.downloads-tabs li[id='mobile&amp;edge']</t>
   </si>
+  <si>
+    <t>Locator Type</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -383,6 +392,12 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -404,11 +419,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,16 +761,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6CD50A-E106-C04C-9BAE-9E1E25E34BE9}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="86.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -767,7 +784,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -780,7 +799,9 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -793,7 +814,9 @@
       <c r="C3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -806,7 +829,9 @@
       <c r="C4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -819,7 +844,9 @@
       <c r="C5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -832,7 +859,9 @@
       <c r="C6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -845,7 +874,9 @@
       <c r="C7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -858,7 +889,9 @@
       <c r="C8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -871,7 +904,9 @@
       <c r="C9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -884,7 +919,9 @@
       <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -897,7 +934,9 @@
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -910,7 +949,9 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -923,7 +964,9 @@
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -936,7 +979,9 @@
       <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -949,7 +994,9 @@
       <c r="C15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -962,7 +1009,9 @@
       <c r="C16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -975,7 +1024,9 @@
       <c r="C17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -988,7 +1039,9 @@
       <c r="C18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1001,7 +1054,9 @@
       <c r="C19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1014,7 +1069,9 @@
       <c r="C20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1027,7 +1084,9 @@
       <c r="C21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1040,7 +1099,9 @@
       <c r="C22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1053,7 +1114,9 @@
       <c r="C23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1066,7 +1129,9 @@
       <c r="C24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1079,7 +1144,9 @@
       <c r="C25" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1092,7 +1159,9 @@
       <c r="C26" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1105,7 +1174,9 @@
       <c r="C27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1118,7 +1189,9 @@
       <c r="C28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1131,7 +1204,9 @@
       <c r="C29" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1144,7 +1219,9 @@
       <c r="C30" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1157,6 +1234,9 @@
       <c r="C31" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
@@ -1168,8 +1248,11 @@
       <c r="C32" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1179,8 +1262,11 @@
       <c r="C33" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1190,8 +1276,11 @@
       <c r="C34" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1201,8 +1290,11 @@
       <c r="C35" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1212,8 +1304,11 @@
       <c r="C36" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1223,8 +1318,11 @@
       <c r="C37" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1234,8 +1332,11 @@
       <c r="C38" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1245,8 +1346,11 @@
       <c r="C39" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1256,8 +1360,11 @@
       <c r="C40" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -1267,8 +1374,11 @@
       <c r="C41" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -1278,8 +1388,11 @@
       <c r="C42" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -1289,8 +1402,11 @@
       <c r="C43" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -1300,8 +1416,11 @@
       <c r="C44" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -1311,8 +1430,11 @@
       <c r="C45" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -1322,8 +1444,11 @@
       <c r="C46" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -1333,8 +1458,11 @@
       <c r="C47" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -1344,8 +1472,11 @@
       <c r="C48" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -1354,6 +1485,9 @@
       </c>
       <c r="C49" s="1" t="s">
         <v>75</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
